--- a/data/portfolios.xlsx
+++ b/data/portfolios.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.iskra\source\repos\py-tutorial\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC08EB5F-3CE2-4AB4-99A4-7B6F48A77134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783002CC-6EE5-4183-9D79-676CF2FAF69F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13770" yWindow="4890" windowWidth="16470" windowHeight="10665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" calcOnSave="0"/>
+  <calcPr calcId="162913" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>size</t>
-  </si>
-  <si>
-    <t>risk</t>
   </si>
   <si>
     <t>ClientA</t>
@@ -435,19 +432,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,268 +460,226 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>20</v>
       </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>50</v>
       </c>
-      <c r="F4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>50</v>
       </c>
-      <c r="F5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>100</v>
       </c>
-      <c r="F6">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>30</v>
       </c>
-      <c r="F7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>200</v>
       </c>
-      <c r="F9">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>100</v>
       </c>
-      <c r="F10">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>80</v>
       </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>100</v>
       </c>
-      <c r="F12">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>85</v>
       </c>
-      <c r="F13">
-        <v>-170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
       </c>
       <c r="E14">
         <v>10</v>
-      </c>
-      <c r="F14">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/portfolios.xlsx
+++ b/data/portfolios.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.iskra\source\repos\py-tutorial\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S.Byun\GitHub\py-tutorial\py-tutorial\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC08EB5F-3CE2-4AB4-99A4-7B6F48A77134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA01D72-F93D-491D-B70E-FB697B8B305F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" calcOnSave="0"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>size</t>
-  </si>
-  <si>
-    <t>risk</t>
   </si>
   <si>
     <t>ClientA</t>
@@ -435,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -447,7 +444,7 @@
     <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,272 +460,231 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>20</v>
       </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>50</v>
       </c>
-      <c r="F4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>50</v>
       </c>
-      <c r="F5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>100</v>
       </c>
-      <c r="F6">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>30</v>
       </c>
-      <c r="F7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>200</v>
       </c>
-      <c r="F9">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>100</v>
       </c>
-      <c r="F10">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>80</v>
       </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>100</v>
       </c>
-      <c r="F12">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>85</v>
       </c>
-      <c r="F13">
-        <v>-170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
       </c>
       <c r="E14">
         <v>10</v>
-      </c>
-      <c r="F14">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>